--- a/matched/clean_match_not_found.xlsx
+++ b/matched/clean_match_not_found.xlsx
@@ -460,7 +460,7 @@
     <t>Withdrawal Producer</t>
   </si>
   <si>
-    <t>['Augusto César  Diaz']</t>
+    <t>['Augusto Cesar  Diaz']</t>
   </si>
   <si>
     <t>['Pavel aka Paul Mosencov']</t>
@@ -490,13 +490,13 @@
     <t>['Emanuel Hoss-Desmarais']</t>
   </si>
   <si>
-    <t>['Léa Pool']</t>
+    <t>['Lea Pool']</t>
   </si>
   <si>
     <t>['Agnieszka Zwiefka']</t>
   </si>
   <si>
-    <t>['Maria Bäck']</t>
+    <t>['Maria Back']</t>
   </si>
   <si>
     <t>['Hiam Abbass']</t>
@@ -514,7 +514,7 @@
     <t>['Ivan Bolotnikov']</t>
   </si>
   <si>
-    <t>['Pierre Léon']</t>
+    <t>['Pierre Leon']</t>
   </si>
   <si>
     <t>['Magdalena Holland-Lazarkiewicz']</t>
@@ -532,7 +532,7 @@
     <t>['Reinis Kalnaellis']</t>
   </si>
   <si>
-    <t>['Kaan Müjdeci']</t>
+    <t>['Kaan Mujdeci']</t>
   </si>
   <si>
     <t>['Nana Jorjadze']</t>
